--- a/biology/Zoologie/Araneidae/Araneidae.xlsx
+++ b/biology/Zoologie/Araneidae/Araneidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Araneidae sont une famille d'araignées aranéomorphes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Araneidae sont une famille d'araignées aranéomorphes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille se rencontrent sur tous les continents sauf aux pôles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille se rencontrent sur tous les continents sauf aux pôles.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les pattes sont très épineuses. Elles construisent des toiles géométriques, à moyeu fermé, souvent avec une retraite. La plupart des espèces typiquement se tiennent pendues sur leur toile avec la tête en bas. Ces araignées passent l'hiver sous forme d'œufs.
 La plupart construisent des toiles en forme de spirales circulaires, ce sont des araignées orbitèles.
@@ -575,9 +591,11 @@
           <t>Paléontologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille est connue depuis le Crétacé[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille est connue depuis le Crétacé.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Spider Catalog                                (version 25.0, 18/03/2024)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Spider Catalog                                (version 25.0, 18/03/2024) :
 Abba Castanheira &amp; Framenau, 2023
 Acacesia Simon, 1895
 Acantharachne Tullgren, 1910
@@ -800,7 +820,7 @@
 Zealaranea Court &amp; Forster, 1988
 Zilla C. L. Koch, 1834
 Zygiella F. O. Pickard-Cambridge, 1902
-Selon World Spider Catalog (version 23.5, 2023)[2] :
+Selon World Spider Catalog (version 23.5, 2023) :
 † Anepeira Wunderlich, 2004
 † Araneometa Wunderlich, 1988
 † Bararaneus Wunderlich, 2004
@@ -850,11 +870,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille a été décrite par Clerck en 1757.
-Les Nephilinae[3], élevées au rang de famille par Kuntner en 2006[4], placées en synonymie par Dimitrov et al. en 2017[5], relevées de synonymie par Kuntner et al. en 2023[6] ont été placées en synonymie par Hormiga et al. en 2023[7].
-Cette famille rassemble 3 132 espèces dans 191 genres actuels[1]. Il s'agit de la troisième plus grande famille d'araignées, après celles des Salticidae et des Linyphiidae.
+Les Nephilinae, élevées au rang de famille par Kuntner en 2006, placées en synonymie par Dimitrov et al. en 2017, relevées de synonymie par Kuntner et al. en 2023 ont été placées en synonymie par Hormiga et al. en 2023.
+Cette famille rassemble 3 132 espèces dans 191 genres actuels. Il s'agit de la troisième plus grande famille d'araignées, après celles des Salticidae et des Linyphiidae.
 </t>
         </is>
       </c>
@@ -883,7 +905,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Clerck, 1757 : Svenska spindlar, uti sina hufvud-slågter indelte samt under några och sextio särskildte arter beskrefne och med illuminerade figurer uplyste. Stockholmiae, p. 1-154.</t>
         </is>
